--- a/천세륜_테스트_1.1/MemberTC_1.1.xlsx
+++ b/천세륜_테스트_1.1/MemberTC_1.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User_Data\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021 capstone design\Test\천세륜_테스트_1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF792F-1C85-4FD7-A9AA-27BFBB72389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FD005-9133-4DF0-ADB5-E79F989D921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{54F435FE-9FDC-425B-9D9F-34594C88A827}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{54F435FE-9FDC-425B-9D9F-34594C88A827}"/>
   </bookViews>
   <sheets>
     <sheet name="서식" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="아이디 찾기" sheetId="5" r:id="rId5"/>
     <sheet name="비밀번호 찾기" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">회원가입!$A$1:$L$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5804,7 +5807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="264">
   <si>
     <t>테스트 케이스 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5896,18 +5899,6 @@
   </si>
   <si>
     <t xml:space="preserve">닉네임 = </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">생년월일 = </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">성별 = </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이메일 = </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6969,10 +6960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 = csrcsr123! 확인비밀번호 = csrcsr123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력한 비밀번호가
 다르다는 경고창이
 나온다.</t>
@@ -7028,10 +7015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아.. 노란색 칸만이구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7045,6 +7028,63 @@
   </si>
   <si>
     <t>닉네임 = 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년 - 1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생월 - 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일 - 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별 - 선택 안 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 - zzangah99@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 - zzangah99@navercom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 - zzangah999@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 인증번호 - gRqjQvJY19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호 - GWhzmH933t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 = csrcsr123! 
+확인비밀번호 = csrcsr123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일 = 1999.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별 = 선택 안 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 = zzangah999@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7283,7 +7323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7368,9 +7408,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7383,28 +7420,19 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -7425,8 +7453,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -7434,28 +7495,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -7467,10 +7513,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -7802,247 +7848,275 @@
       <selection activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="9" max="10" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="9" max="10" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="D2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="36"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="14"/>
       <c r="G8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="8"/>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="8"/>
       <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="G11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="J14" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -8052,35 +8126,7 @@
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8097,418 +8143,468 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.625" style="1"/>
-    <col min="9" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
+    <col min="2" max="2" width="8.58203125" style="1"/>
+    <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.58203125" style="1"/>
+    <col min="9" max="10" width="8.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="47">
+      <c r="J2" s="44"/>
+      <c r="K2" s="57">
         <v>1</v>
       </c>
-      <c r="L2" s="47"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="L2" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="48"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="55"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="36"/>
+      <c r="K6" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="14"/>
       <c r="G8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="8"/>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="8"/>
       <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="G11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="J14" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K14" s="27"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19">
         <v>1</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="B17" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51" t="s">
+      <c r="B19" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" ht="68.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:12" ht="68.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G24:I24"/>
@@ -8521,56 +8617,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8583,221 +8629,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E17F77-F8B4-45B7-81E5-8BA57C462569}">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:L11"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1"/>
+    <col min="2" max="2" width="8.58203125" style="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.625" style="1"/>
-    <col min="9" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
+    <col min="4" max="4" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="10.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.58203125" style="1"/>
+    <col min="9" max="10" width="8.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="47">
+      <c r="J2" s="44"/>
+      <c r="K2" s="57">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L2" s="47"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="46"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="42"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="36"/>
+      <c r="K6" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="14"/>
       <c r="G8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="8"/>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="8"/>
       <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="G11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -8806,15 +8853,15 @@
       <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8823,34 +8870,34 @@
       <c r="G14" s="6">
         <v>6</v>
       </c>
-      <c r="H14" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-    </row>
-    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="H14" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="B16" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="J16" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="29"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -8858,977 +8905,898 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="J17" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J17" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:14" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="1:14" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19">
         <v>1</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="51" t="s">
+      <c r="B20" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:14" ht="52" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14" ht="36.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="51" t="s">
+      <c r="B22" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51" t="s">
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:14" ht="71.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-    </row>
-    <row r="21" spans="1:14" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:14" ht="56.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="52" t="s">
+      <c r="B25" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:14" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="52" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:14" ht="71.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-    </row>
-    <row r="25" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="10" t="s">
+      <c r="E27" s="52"/>
+      <c r="F27" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G25" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="1:14" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52" t="s">
+      <c r="G27" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+    </row>
+    <row r="28" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G26" s="52" t="s">
+      <c r="B28" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-    </row>
-    <row r="27" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="50" t="s">
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="15" t="s">
+      <c r="B29" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G29" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-    </row>
-    <row r="28" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="1:14" ht="53.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B31" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="52" t="s">
+      <c r="E31" s="35"/>
+      <c r="F31" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-    </row>
-    <row r="29" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="G31" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+    </row>
+    <row r="32" spans="1:14" ht="51.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="52" t="s">
+      <c r="B32" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G29" s="52" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:14" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="G32" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="1:12" ht="60.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B33" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="3" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+    </row>
+    <row r="34" spans="1:12" ht="53.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G30" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-    </row>
-    <row r="31" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-    </row>
-    <row r="32" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="3" t="s">
+      <c r="G34" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="G32" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-    </row>
-    <row r="33" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="52" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="3" t="s">
+      <c r="B35" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G35" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="52" t="s">
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+    </row>
+    <row r="36" spans="1:12" ht="56.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="52" t="s">
+      <c r="B36" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+    </row>
+    <row r="37" spans="1:12" ht="53.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:13" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="B37" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+    </row>
+    <row r="38" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="1:13" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="61" t="s">
+      <c r="B38" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="31" t="s">
+      <c r="C38" s="35"/>
+      <c r="D38" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G38" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-    </row>
-    <row r="37" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="G37" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-    </row>
-    <row r="39" spans="1:13" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+    </row>
+    <row r="39" spans="1:12" ht="56.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="16">
         <v>5</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="40" spans="1:13" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+    </row>
+    <row r="40" spans="1:12" ht="56.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="16">
         <v>6</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-    </row>
-    <row r="41" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+    </row>
+    <row r="41" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="16">
         <v>7</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-    </row>
-    <row r="42" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+    </row>
+    <row r="42" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16">
         <v>8</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+    </row>
+    <row r="43" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+    </row>
+    <row r="44" spans="1:12" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="52" t="s">
+      <c r="B44" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+    </row>
+    <row r="45" spans="1:12" ht="54.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-    </row>
-    <row r="43" spans="1:13" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="52" t="s">
+      <c r="B45" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="52" t="s">
+      <c r="C45" s="35"/>
+      <c r="D45" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-    </row>
-    <row r="44" spans="1:13" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="52" t="s">
+      <c r="E45" s="35"/>
+      <c r="F45" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+    </row>
+    <row r="46" spans="1:12" ht="48.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+    </row>
+    <row r="47" spans="1:12" ht="73" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-    </row>
-    <row r="45" spans="1:13" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="52" t="s">
+      <c r="E47" s="35"/>
+      <c r="F47" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+    </row>
+    <row r="48" spans="1:12" ht="70" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-    </row>
-    <row r="46" spans="1:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="52" t="s">
+      <c r="B48" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-    </row>
-    <row r="47" spans="1:13" ht="72.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="52" t="s">
+      <c r="E48" s="52"/>
+      <c r="F48" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+    </row>
+    <row r="49" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-    </row>
-    <row r="48" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="50" t="s">
+      <c r="B49" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+    </row>
+    <row r="50" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-    </row>
-    <row r="49" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="52" t="s">
+      <c r="B50" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-    </row>
-    <row r="50" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-    </row>
-    <row r="51" spans="1:12" ht="53.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="52"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+    </row>
+    <row r="51" spans="1:12" ht="53.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19">
         <v>12</v>
       </c>
-      <c r="B51" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="9"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="37"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="37"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="9"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="37"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="172">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="G29:I29"/>
@@ -9853,10 +9821,158 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9869,386 +9985,432 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.625" style="1"/>
-    <col min="9" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
+    <col min="2" max="2" width="8.58203125" style="1"/>
+    <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.58203125" style="1"/>
+    <col min="9" max="10" width="8.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="47">
+      <c r="J2" s="44"/>
+      <c r="K2" s="57">
         <v>1</v>
       </c>
-      <c r="L2" s="47"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="L2" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="14"/>
       <c r="G8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="8"/>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="8"/>
       <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="8"/>
       <c r="G11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="8"/>
       <c r="G12" s="6">
         <v>4</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="J14" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19">
         <v>1</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="B17" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" ht="68.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="52" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:12" ht="68.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="55"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="G21:I21"/>
@@ -10265,14 +10427,612 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187F47B-EF08-456A-A507-D4E32247C42A}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="1"/>
+    <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.58203125" style="1"/>
+    <col min="9" max="10" width="8.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="J14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="19">
+        <v>1</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" ht="48.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+    </row>
+    <row r="26" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="1:12" ht="67" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="54"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="16"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="B10:D10"/>
@@ -10289,612 +11049,54 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187F47B-EF08-456A-A507-D4E32247C42A}">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.625" style="1"/>
-    <col min="9" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L2" s="47"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="6">
-        <v>4</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="J14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>1</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-    </row>
-    <row r="22" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>3</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-    </row>
-    <row r="25" spans="1:12" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-    </row>
-    <row r="26" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-    </row>
-    <row r="27" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-    </row>
-    <row r="28" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-    </row>
-    <row r="29" spans="1:12" ht="66.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-    </row>
-    <row r="31" spans="1:12" ht="71.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-    </row>
-    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-    </row>
-    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="98">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:I33"/>
@@ -10907,6 +11109,808 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="J32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3D7B0D-BE24-41AD-A117-4FEC178B1073}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="1"/>
+    <col min="3" max="3" width="13.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.58203125" style="1"/>
+    <col min="9" max="10" width="8.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="J14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="19">
+        <v>1</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" ht="50.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16">
+        <v>3</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" ht="48.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+    </row>
+    <row r="25" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" ht="83.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="1:12" ht="86.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+    </row>
+    <row r="32" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+    </row>
+    <row r="34" spans="1:12" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="1:12" ht="74.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+    </row>
+    <row r="36" spans="1:12" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+    </row>
+    <row r="37" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="19">
+        <v>8</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="54"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+    </row>
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="16"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="16"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="16"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="16"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="130">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="G29:I29"/>
@@ -10923,820 +11927,22 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3D7B0D-BE24-41AD-A117-4FEC178B1073}">
-  <dimension ref="A1:L41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.625" style="1"/>
-    <col min="9" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L2" s="47"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="6">
-        <v>4</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="J14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>1</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-    </row>
-    <row r="22" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>3</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="1:12" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-    </row>
-    <row r="25" spans="1:12" ht="51.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-    </row>
-    <row r="27" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-    </row>
-    <row r="28" spans="1:12" ht="83.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-    </row>
-    <row r="29" spans="1:12" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-    </row>
-    <row r="30" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-    </row>
-    <row r="31" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-    </row>
-    <row r="32" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-    </row>
-    <row r="33" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="1:12" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:12" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="1:12" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-    </row>
-    <row r="37" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
-        <v>8</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-    </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="G37:I37"/>
@@ -11753,108 +11959,18 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:L36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
